--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
@@ -1401,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,910 +1412,868 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>~UC_T</t>
+          <t>UC_N</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_N</t>
+          <t>UC_SOLARPV_UTILITY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pset_PN</t>
+          <t>ESO*UTI*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LimType</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UC_CAP</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>UC_RHST</t>
+          <t>0.583</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>UC_RHST~0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>UC_Desc</t>
+          <t>Ground based solar (tracking and fixed)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_UTILITY</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ESO*UTI*</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.583</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Ground based solar (tracking and fixed)</t>
+          <t>5.986</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.986</t>
+          <t>8.145</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8.145</t>
+          <t>9.683</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2060</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>9.901</t>
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>UC_SOLARPV_GRDIST</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ESO*DIST*</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.327</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ground based solar (fixed - distributed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.676</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>~UC_T</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_RES</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ESOL*RES*</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SOLAR residential rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4175</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~NI</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~SI</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_COM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ESOL*COM*</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SOLAR commercial rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.475</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.825</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5.0625</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UC_SOLARPV_IND</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ESOL*IND*</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Solar for industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>UC_N</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pset_CI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pset_CO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>LimType</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>UC_NCAP</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>UC_RHST</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>UC_RHST~0</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_GRDIST</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ESO*DIST*</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOLAR_LO_Growth_rate</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ELCSOL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ELCDD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>LO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.327</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Ground based solar (fixed - distributed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.676</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_RES</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ESOL*RES*</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>SOLAR residential rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>1.4175</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.4725</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~NI</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~SI</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_COM</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ESOL*COM*</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>SOLAR commercial rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2.475</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.825</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5.0625</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>1.6875</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_IND</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ESOL*IND*</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Solar for industry</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Pset_CI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Pset_CO</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>UC_NCAP</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLAR_LO_Growth_rate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ELCSOL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>ELCDD</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>LO</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>SOLAR minimal growth rate per year</t>
         </is>

--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -443,12 +443,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -623,12 +623,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -788,12 +788,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -953,12 +953,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -1118,12 +1118,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1419,12 +1419,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1580,12 +1580,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1705,12 +1705,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -1862,12 +1862,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2019,12 +2019,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
@@ -2176,12 +2176,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -2308,12 +2308,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>~TFM_UPD</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -2411,12 +2411,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
@@ -2531,12 +2531,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>

--- a/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Scen_Cohesive.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,25 +495,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2035</t>
+          <t>UC_NCAP~2050</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>UC_NCAP~2040</t>
+          <t>UC_RHST</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>UC_RHST</t>
+          <t>UC_RHST~0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -522,12 +517,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAX_VHTBEV_UPTAKE</t>
+          <t>MAX_PHEV_UPTAKE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>T_F_V*BEV*,T_F_V*H2R*</t>
+          <t>T_P_C*PHEV*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -542,88 +537,78 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-9.99999999995449e-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Max number of BEV cars per year</t>
+          <t>Max number of PHEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>T_F_V*,-T_F_V*BEV*,-T_F_V*H2R*</t>
+          <t>T_P_C*,-T_P_C*PHEV*</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.99999</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -675,7 +660,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>UC_NCAP~2050</t>
+          <t>UC_NCAP~2035</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -697,12 +682,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MAX_PHEV_UPTAKE</t>
+          <t>MAX_BEV_UPTAKE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T_P_C*PHEV*</t>
+          <t>T_P_C*BEV*,T_P_C*H2R*</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -717,22 +702,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-9.99999999995449e-06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -747,48 +732,48 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Max number of PHEV cars per year</t>
+          <t>Max number of BEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*PHEV*</t>
+          <t>T_P_C*,-T_P_C*BEV*,-T_P_C*H2R*</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.99999</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -840,7 +825,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>UC_NCAP~2035</t>
+          <t>UC_NCAP~2050</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -862,12 +847,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MAX_BEV_UPTAKE</t>
+          <t>MAX_PHEV_UPTAKE_commercial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>T_P_C*BEV*,T_P_C*H2R*</t>
+          <t>T_C_C*PHEV*</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -882,22 +867,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-9.99999999995449e-06</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -912,48 +897,48 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Max number of BEV cars per year</t>
+          <t>Max number of PHEV commerical cars per year</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*BEV*,-T_P_C*H2R*</t>
+          <t>T_C_C*,-T_C_C*PHEV*</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.99999</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1005,7 +990,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>UC_NCAP~2050</t>
+          <t>UC_NCAP~2035</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1027,12 +1012,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MAX_PHEV_UPTAKE_commercial</t>
+          <t>MAX_BEV_UPTAKE_commercial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>T_C_C*PHEV*</t>
+          <t>T_C_C*BEV*,T_C_C*H2R*</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1047,22 +1032,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-9.99999999995449e-06</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1077,48 +1062,48 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Max number of PHEV commerical cars per year</t>
+          <t>Max number of BEV commercial cars per year</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>T_C_C*,-T_C_C*PHEV*</t>
+          <t>T_C_C*,-T_C_C*BEV*,-T_c_C*H2R*</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.99999</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1175,15 +1160,20 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>UC_NCAP~2040</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>UC_RHST</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>UC_RHST~0</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -1192,12 +1182,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAX_BEV_UPTAKE_commercial</t>
+          <t>MAX_VHTBEV_UPTAKE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>T_C_C*BEV*,T_C_C*H2R*</t>
+          <t>T_F_V*BEV*,T_F_V*H2R*</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1212,62 +1202,72 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.3</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>-9.99999999995449e-06</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Max number of BEV commercial cars per year</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Max number of BEV cars per year</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_C_C*,-T_C_C*BEV*,-T_c_C*H2R*</t>
+          <t>T_F_V*,-T_F_V*BEV*,-T_F_V*H2R*</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>0.99999</t>
         </is>
@@ -1412,14 +1412,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UC_SOLARPV_UTILITY</t>
+          <t>UC_SOLARPV_GRDIST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESO*UTI*</t>
+          <t>ESO*DIST*</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1508,675 +1508,675 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.583</t>
+          <t>0.327</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Ground based solar (tracking and fixed)</t>
+          <t>Ground based solar (fixed - distributed)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.986</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.145</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>9.683</t>
+          <t>1.676</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2060</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>9.901</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>~UC_T</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>UC_SOLARPV_RES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ESOL*RES*</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SOLAR residential rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4175</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_E: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>UC_RHST</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_GRDIST</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ESO*DIST*</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.327</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Ground based solar (fixed - distributed)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.676</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~NI</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~SI</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>UC_RHSRTS~0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>UC_SOLARPV_COM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ESOL*COM*</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SOLAR commercial rooftop potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.475</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.825</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5.0625</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>~UC_Sets: R_E: AllRegions</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_RES</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ESOL*RES*</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>SOLAR residential rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1.4175</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.4725</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1.35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~NI</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~SI</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>UC_RHSRT~0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>UC_SOLARPV_IND</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ESOL*IND*</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Solar for industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>~UC_Sets: R_S: AllRegions</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>~UC_T</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~NI</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~SI</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>UC_RHSRTS~0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_COM</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ESOL*COM*</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>SOLAR commercial rooftop potential</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2030</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2.475</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.825</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>5.0625</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1.6875</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>UC_N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pset_Set</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pset_PN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>UC_CAP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>UC_RHST</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>UC_RHST~0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>UC_Desc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_E: AllRegions</t>
+          <t>UC_SOLARPV_UTILITY</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~UC_T</t>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ESO*UTI*</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.583</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Ground based solar (tracking and fixed)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>UC_N</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>UC_CAP</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>UC_RHSRT~NI</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~SI</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>UC_RHSRT~0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>UC_Desc</t>
+          <t>5.986</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>UC_SOLARPV_IND</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ESOL*IND*</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Solar for industry</t>
+          <t>8.145</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>9.683</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>9.901</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_E: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_E: </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2301,14 +2301,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2404,14 +2404,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2453,15 +2453,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>UC_NCAP~2040</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>UC_RHST</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>UC_RHST~0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -2470,12 +2475,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICE_Car_ban</t>
+          <t>HYB_Car_ban</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T_P_C*ICE*</t>
+          <t>T_P_C*HYB*</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2490,32 +2495,42 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>-0.975</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>-0.99999</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Internal combustion cars number limit and futher ban</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Hybrid cars number limit and futher ban</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*ICE*</t>
+          <t>T_P_C*,-T_P_C*HYB*</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>1e-05</t>
         </is>
@@ -2524,14 +2539,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">~UC_Sets: T_S: </t>
+          <t>~UC_Sets: R_S: AllRegions</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~UC_Sets: R_S: AllRegions</t>
+          <t xml:space="preserve">~UC_Sets: T_S: </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2573,20 +2588,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>UC_NCAP~2040</t>
+          <t>UC_RHST</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>UC_RHST</t>
+          <t>UC_RHST~0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>UC_RHST~0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>UC_Desc</t>
         </is>
@@ -2595,12 +2605,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HYB_Car_ban</t>
+          <t>ICE_Car_ban</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>T_P_C*HYB*</t>
+          <t>T_P_C*ICE*</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2615,42 +2625,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.975</t>
+          <t>-0.99999</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.99999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Hybrid cars number limit and futher ban</t>
+          <t>Internal combustion cars number limit and futher ban</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>T_P_C*,-T_P_C*HYB*</t>
+          <t>T_P_C*,-T_P_C*ICE*</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>0.025</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>1e-05</t>
         </is>
@@ -3073,12 +3073,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cset_Set</t>
+          <t>Cset_CN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cset_CN</t>
+          <t>Pset_PN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3100,12 +3100,17 @@
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3115,19 +3120,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>3.71</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3137,19 +3147,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3159,19 +3174,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>4.35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3181,19 +3201,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>4.48</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3203,19 +3228,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3225,19 +3255,24 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.155</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3247,19 +3282,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3269,19 +3309,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3291,19 +3336,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.205</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>COM_TAXNET</t>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TOTCO2</t>
+          <t>EXPCOA1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3313,7 +3363,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3342,17 +3392,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cset_CN</t>
+          <t>Pset_PN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pset_PN</t>
+          <t>Pset_Set</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cset_CD</t>
+          <t>Pset_CI</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3369,125 +3419,135 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>R*,C*,T_*BEV*,T_*H2*</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>DMD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>0.025</t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>\I:</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>NCAP_DRATE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>FIXOM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3497,363 +3557,303 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>FIXOM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>E*SOL*</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2050</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>EXPCOA1</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2055</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>~TFM_INS</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TimeSlice</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LimType</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>Attribute</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>Cset_Set</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>Cset_CN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cset_CD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>AllRegions</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>COST</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>COA</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EXPCOA1</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>COM_TAXNET</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.06</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>~TFM_INS</t>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COM_TAXNET</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.105</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TimeSlice</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LimType</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Attribute</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Pset_PN</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pset_Set</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Pset_CI</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AllRegions</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R*,C*,T_*BEV*,T_*H2*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DMD</t>
+          <t>TOTCO2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2040</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2045</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.155</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>\I:</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NCAP_DRATE</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.185</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="inlineStr">
         <is>
-          <t>FIXOM</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.205</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="inlineStr">
         <is>
-          <t>FIXOM</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>E*SOL*</t>
+          <t>COM_TAXNET</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ELE</t>
+          <t>TOTCO2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
